--- a/data/trans_orig/P3A_R2-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P3A_R2-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{00F3672E-98BA-480E-AE66-0A1B5246D160}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C270B7DF-AC44-4A26-855A-834DE2BBA0BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{F70BA80B-CB8A-4232-B2E0-A1CF40DCDBE9}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{FC30F2AB-E61E-4CE5-915C-A0A294B1326D}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="527">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="550">
   <si>
     <t>Hogares según si las tareas domésticas las realiza principalmente una persona con remuneración en 2007 (Tasa respuesta: 99,92%)</t>
   </si>
@@ -71,7 +71,7 @@
     <t>Almeria</t>
   </si>
   <si>
-    <t>SÍ</t>
+    <t>Sí</t>
   </si>
   <si>
     <t>4,65%</t>
@@ -101,7 +101,7 @@
     <t>5,58%</t>
   </si>
   <si>
-    <t>NO</t>
+    <t>No</t>
   </si>
   <si>
     <t>95,35%</t>
@@ -575,7 +575,52 @@
     <t>Hogares según si las tareas domésticas las realiza principalmente una persona con remuneración en 2012 (Tasa respuesta: 99,95%)</t>
   </si>
   <si>
-    <t>—%</t>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>4,34%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>7,55%</t>
+  </si>
+  <si>
+    <t>3,46%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>5,21%</t>
+  </si>
+  <si>
+    <t>97,39%</t>
+  </si>
+  <si>
+    <t>98,74%</t>
+  </si>
+  <si>
+    <t>95,66%</t>
+  </si>
+  <si>
+    <t>92,45%</t>
+  </si>
+  <si>
+    <t>97,77%</t>
+  </si>
+  <si>
+    <t>96,54%</t>
+  </si>
+  <si>
+    <t>94,79%</t>
+  </si>
+  <si>
+    <t>97,94%</t>
   </si>
   <si>
     <t>1,18%</t>
@@ -662,366 +707,378 @@
     <t>95,99%</t>
   </si>
   <si>
-    <t>2,89%</t>
+    <t>3,11%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>5,41%</t>
+  </si>
+  <si>
+    <t>3,52%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>5,78%</t>
+  </si>
+  <si>
+    <t>3,32%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>4,82%</t>
+  </si>
+  <si>
+    <t>96,89%</t>
+  </si>
+  <si>
+    <t>94,59%</t>
+  </si>
+  <si>
+    <t>98,25%</t>
+  </si>
+  <si>
+    <t>96,48%</t>
+  </si>
+  <si>
+    <t>94,22%</t>
+  </si>
+  <si>
+    <t>98,18%</t>
+  </si>
+  <si>
+    <t>96,68%</t>
+  </si>
+  <si>
+    <t>95,18%</t>
+  </si>
+  <si>
+    <t>97,79%</t>
+  </si>
+  <si>
+    <t>5,06%</t>
+  </si>
+  <si>
+    <t>9,49%</t>
+  </si>
+  <si>
+    <t>4,63%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>8,13%</t>
+  </si>
+  <si>
+    <t>4,84%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>7,32%</t>
+  </si>
+  <si>
+    <t>94,94%</t>
+  </si>
+  <si>
+    <t>90,51%</t>
+  </si>
+  <si>
+    <t>95,37%</t>
+  </si>
+  <si>
+    <t>91,87%</t>
+  </si>
+  <si>
+    <t>97,68%</t>
+  </si>
+  <si>
+    <t>95,16%</t>
+  </si>
+  <si>
+    <t>92,68%</t>
+  </si>
+  <si>
+    <t>96,96%</t>
+  </si>
+  <si>
+    <t>9,33%</t>
+  </si>
+  <si>
+    <t>6,07%</t>
+  </si>
+  <si>
+    <t>13,5%</t>
+  </si>
+  <si>
+    <t>4,33%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>7,34%</t>
+  </si>
+  <si>
+    <t>6,8%</t>
+  </si>
+  <si>
+    <t>4,89%</t>
+  </si>
+  <si>
+    <t>90,67%</t>
+  </si>
+  <si>
+    <t>86,5%</t>
+  </si>
+  <si>
+    <t>93,93%</t>
+  </si>
+  <si>
+    <t>95,67%</t>
+  </si>
+  <si>
+    <t>92,66%</t>
+  </si>
+  <si>
+    <t>97,81%</t>
+  </si>
+  <si>
+    <t>93,2%</t>
+  </si>
+  <si>
+    <t>95,11%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>4,86%</t>
+  </si>
+  <si>
+    <t>3,4%</t>
+  </si>
+  <si>
+    <t>7,14%</t>
+  </si>
+  <si>
+    <t>4,1%</t>
+  </si>
+  <si>
+    <t>5,47%</t>
+  </si>
+  <si>
+    <t>95,14%</t>
+  </si>
+  <si>
+    <t>98,1%</t>
+  </si>
+  <si>
+    <t>92,86%</t>
+  </si>
+  <si>
+    <t>96,6%</t>
+  </si>
+  <si>
+    <t>95,9%</t>
+  </si>
+  <si>
+    <t>94,53%</t>
+  </si>
+  <si>
+    <t>3,16%</t>
+  </si>
+  <si>
+    <t>4,64%</t>
+  </si>
+  <si>
+    <t>4,4%</t>
+  </si>
+  <si>
+    <t>2,94%</t>
+  </si>
+  <si>
+    <t>5,97%</t>
+  </si>
+  <si>
+    <t>96,84%</t>
+  </si>
+  <si>
+    <t>95,36%</t>
+  </si>
+  <si>
+    <t>95,6%</t>
+  </si>
+  <si>
+    <t>94,03%</t>
+  </si>
+  <si>
+    <t>97,06%</t>
+  </si>
+  <si>
+    <t>3,82%</t>
+  </si>
+  <si>
+    <t>3,81%</t>
+  </si>
+  <si>
+    <t>5,28%</t>
+  </si>
+  <si>
+    <t>4,19%</t>
+  </si>
+  <si>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>4,72%</t>
+  </si>
+  <si>
+    <t>96,18%</t>
+  </si>
+  <si>
+    <t>94,72%</t>
+  </si>
+  <si>
+    <t>96,19%</t>
+  </si>
+  <si>
+    <t>95,81%</t>
+  </si>
+  <si>
+    <t>95,28%</t>
+  </si>
+  <si>
+    <t>96,32%</t>
+  </si>
+  <si>
+    <t>Hogares según si las tareas domésticas las realiza principalmente una persona con remuneración en 2016 (Tasa respuesta: 99,8%)</t>
+  </si>
+  <si>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>3,2%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>6,35%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>4,7%</t>
+  </si>
+  <si>
+    <t>97,57%</t>
+  </si>
+  <si>
+    <t>99,08%</t>
+  </si>
+  <si>
+    <t>96,8%</t>
+  </si>
+  <si>
+    <t>93,65%</t>
+  </si>
+  <si>
+    <t>98,61%</t>
+  </si>
+  <si>
+    <t>95,3%</t>
+  </si>
+  <si>
+    <t>98,43%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>2,96%</t>
+  </si>
+  <si>
+    <t>98,68%</t>
+  </si>
+  <si>
+    <t>97,45%</t>
+  </si>
+  <si>
+    <t>99,43%</t>
+  </si>
+  <si>
+    <t>98,93%</t>
+  </si>
+  <si>
+    <t>98,2%</t>
+  </si>
+  <si>
+    <t>97,04%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>4,67%</t>
   </si>
   <si>
     <t>1,69%</t>
   </si>
   <si>
-    <t>4,42%</t>
-  </si>
-  <si>
-    <t>3,87%</t>
-  </si>
-  <si>
-    <t>2,43%</t>
-  </si>
-  <si>
-    <t>5,72%</t>
-  </si>
-  <si>
-    <t>2,5%</t>
-  </si>
-  <si>
-    <t>4,49%</t>
-  </si>
-  <si>
-    <t>97,11%</t>
-  </si>
-  <si>
-    <t>95,58%</t>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>3,7%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>3,55%</t>
+  </si>
+  <si>
+    <t>97,48%</t>
+  </si>
+  <si>
+    <t>95,33%</t>
+  </si>
+  <si>
+    <t>98,76%</t>
   </si>
   <si>
     <t>98,31%</t>
   </si>
   <si>
-    <t>96,13%</t>
-  </si>
-  <si>
-    <t>94,28%</t>
-  </si>
-  <si>
-    <t>97,57%</t>
-  </si>
-  <si>
-    <t>95,51%</t>
-  </si>
-  <si>
-    <t>97,5%</t>
-  </si>
-  <si>
-    <t>5,06%</t>
-  </si>
-  <si>
-    <t>9,49%</t>
-  </si>
-  <si>
-    <t>4,63%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>8,13%</t>
-  </si>
-  <si>
-    <t>4,84%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>7,32%</t>
-  </si>
-  <si>
-    <t>94,94%</t>
-  </si>
-  <si>
-    <t>90,51%</t>
-  </si>
-  <si>
-    <t>95,37%</t>
-  </si>
-  <si>
-    <t>91,87%</t>
-  </si>
-  <si>
-    <t>97,68%</t>
-  </si>
-  <si>
-    <t>95,16%</t>
-  </si>
-  <si>
-    <t>92,68%</t>
-  </si>
-  <si>
-    <t>96,96%</t>
-  </si>
-  <si>
-    <t>9,33%</t>
-  </si>
-  <si>
-    <t>6,07%</t>
-  </si>
-  <si>
-    <t>13,5%</t>
-  </si>
-  <si>
-    <t>4,33%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>7,34%</t>
-  </si>
-  <si>
-    <t>6,8%</t>
-  </si>
-  <si>
-    <t>4,89%</t>
-  </si>
-  <si>
-    <t>90,67%</t>
-  </si>
-  <si>
-    <t>86,5%</t>
-  </si>
-  <si>
-    <t>93,93%</t>
-  </si>
-  <si>
-    <t>95,67%</t>
-  </si>
-  <si>
-    <t>92,66%</t>
-  </si>
-  <si>
-    <t>97,81%</t>
-  </si>
-  <si>
-    <t>93,2%</t>
-  </si>
-  <si>
-    <t>95,11%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>4,86%</t>
-  </si>
-  <si>
-    <t>3,4%</t>
-  </si>
-  <si>
-    <t>7,14%</t>
-  </si>
-  <si>
-    <t>4,1%</t>
-  </si>
-  <si>
-    <t>5,47%</t>
-  </si>
-  <si>
-    <t>95,14%</t>
-  </si>
-  <si>
-    <t>98,1%</t>
-  </si>
-  <si>
-    <t>92,86%</t>
-  </si>
-  <si>
-    <t>96,6%</t>
-  </si>
-  <si>
-    <t>95,9%</t>
-  </si>
-  <si>
-    <t>94,53%</t>
-  </si>
-  <si>
-    <t>3,16%</t>
-  </si>
-  <si>
-    <t>4,64%</t>
-  </si>
-  <si>
-    <t>4,4%</t>
-  </si>
-  <si>
-    <t>2,94%</t>
-  </si>
-  <si>
-    <t>5,97%</t>
-  </si>
-  <si>
-    <t>96,84%</t>
-  </si>
-  <si>
-    <t>95,36%</t>
-  </si>
-  <si>
-    <t>95,6%</t>
-  </si>
-  <si>
-    <t>94,03%</t>
-  </si>
-  <si>
-    <t>97,06%</t>
-  </si>
-  <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>3,11%</t>
-  </si>
-  <si>
-    <t>3,81%</t>
-  </si>
-  <si>
-    <t>5,28%</t>
-  </si>
-  <si>
-    <t>4,19%</t>
-  </si>
-  <si>
-    <t>3,68%</t>
-  </si>
-  <si>
-    <t>4,72%</t>
-  </si>
-  <si>
-    <t>96,18%</t>
-  </si>
-  <si>
-    <t>96,89%</t>
-  </si>
-  <si>
-    <t>94,72%</t>
-  </si>
-  <si>
-    <t>96,19%</t>
-  </si>
-  <si>
-    <t>95,81%</t>
-  </si>
-  <si>
-    <t>95,28%</t>
-  </si>
-  <si>
-    <t>96,32%</t>
-  </si>
-  <si>
-    <t>Hogares según si las tareas domésticas las realiza principalmente una persona con remuneración en 2016 (Tasa respuesta: 99,8%)</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>3,2%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>6,35%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>4,7%</t>
-  </si>
-  <si>
-    <t>99,08%</t>
-  </si>
-  <si>
-    <t>96,8%</t>
-  </si>
-  <si>
-    <t>93,65%</t>
-  </si>
-  <si>
-    <t>98,61%</t>
-  </si>
-  <si>
-    <t>95,3%</t>
-  </si>
-  <si>
-    <t>98,43%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>2,96%</t>
-  </si>
-  <si>
-    <t>98,68%</t>
-  </si>
-  <si>
-    <t>97,45%</t>
-  </si>
-  <si>
-    <t>99,43%</t>
-  </si>
-  <si>
-    <t>98,93%</t>
-  </si>
-  <si>
-    <t>98,2%</t>
-  </si>
-  <si>
-    <t>97,04%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>4,67%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>3,7%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>3,55%</t>
-  </si>
-  <si>
-    <t>97,48%</t>
-  </si>
-  <si>
-    <t>95,33%</t>
-  </si>
-  <si>
-    <t>98,76%</t>
-  </si>
-  <si>
     <t>96,3%</t>
   </si>
   <si>
@@ -1262,364 +1319,376 @@
     <t>Hogares según si las tareas domésticas las realiza principalmente una persona con remuneración en 2023 (Tasa respuesta: 99,95%)</t>
   </si>
   <si>
-    <t>3,39%</t>
-  </si>
-  <si>
-    <t>8,05%</t>
-  </si>
-  <si>
-    <t>4,13%</t>
-  </si>
-  <si>
-    <t>8,49%</t>
-  </si>
-  <si>
-    <t>5,53%</t>
-  </si>
-  <si>
-    <t>7,2%</t>
-  </si>
-  <si>
-    <t>91,95%</t>
-  </si>
-  <si>
-    <t>96,61%</t>
-  </si>
-  <si>
-    <t>91,51%</t>
-  </si>
-  <si>
-    <t>95,87%</t>
-  </si>
-  <si>
-    <t>94,47%</t>
-  </si>
-  <si>
-    <t>92,8%</t>
-  </si>
-  <si>
-    <t>3,46%</t>
-  </si>
-  <si>
-    <t>5,71%</t>
-  </si>
-  <si>
-    <t>4,74%</t>
-  </si>
-  <si>
-    <t>3,44%</t>
-  </si>
-  <si>
-    <t>6,27%</t>
-  </si>
-  <si>
-    <t>4,12%</t>
-  </si>
-  <si>
-    <t>3,12%</t>
-  </si>
-  <si>
-    <t>5,46%</t>
-  </si>
-  <si>
-    <t>96,54%</t>
-  </si>
-  <si>
-    <t>94,29%</t>
-  </si>
-  <si>
-    <t>95,26%</t>
-  </si>
-  <si>
-    <t>93,73%</t>
-  </si>
-  <si>
-    <t>96,56%</t>
-  </si>
-  <si>
-    <t>95,88%</t>
-  </si>
-  <si>
-    <t>94,54%</t>
-  </si>
-  <si>
-    <t>96,88%</t>
-  </si>
-  <si>
-    <t>4,77%</t>
-  </si>
-  <si>
-    <t>9,84%</t>
-  </si>
-  <si>
-    <t>9,38%</t>
-  </si>
-  <si>
-    <t>7,29%</t>
-  </si>
-  <si>
-    <t>12,26%</t>
-  </si>
-  <si>
-    <t>8,24%</t>
+    <t>4,69%</t>
+  </si>
+  <si>
+    <t>7,44%</t>
+  </si>
+  <si>
+    <t>5,61%</t>
+  </si>
+  <si>
+    <t>3,91%</t>
+  </si>
+  <si>
+    <t>8,06%</t>
+  </si>
+  <si>
+    <t>5,13%</t>
+  </si>
+  <si>
+    <t>3,78%</t>
   </si>
   <si>
     <t>6,74%</t>
   </si>
   <si>
-    <t>10,34%</t>
-  </si>
-  <si>
-    <t>90,16%</t>
-  </si>
-  <si>
-    <t>95,23%</t>
-  </si>
-  <si>
-    <t>90,62%</t>
-  </si>
-  <si>
-    <t>87,74%</t>
-  </si>
-  <si>
-    <t>92,71%</t>
-  </si>
-  <si>
-    <t>91,76%</t>
-  </si>
-  <si>
-    <t>89,66%</t>
+    <t>95,31%</t>
+  </si>
+  <si>
+    <t>92,56%</t>
+  </si>
+  <si>
+    <t>94,39%</t>
+  </si>
+  <si>
+    <t>91,94%</t>
+  </si>
+  <si>
+    <t>96,09%</t>
+  </si>
+  <si>
+    <t>94,87%</t>
   </si>
   <si>
     <t>93,26%</t>
   </si>
   <si>
+    <t>96,22%</t>
+  </si>
+  <si>
+    <t>3,29%</t>
+  </si>
+  <si>
+    <t>5,55%</t>
+  </si>
+  <si>
+    <t>3,42%</t>
+  </si>
+  <si>
+    <t>6,2%</t>
+  </si>
+  <si>
+    <t>3,99%</t>
+  </si>
+  <si>
+    <t>5,32%</t>
+  </si>
+  <si>
+    <t>96,71%</t>
+  </si>
+  <si>
+    <t>94,45%</t>
+  </si>
+  <si>
+    <t>93,8%</t>
+  </si>
+  <si>
+    <t>96,58%</t>
+  </si>
+  <si>
+    <t>96,01%</t>
+  </si>
+  <si>
+    <t>94,68%</t>
+  </si>
+  <si>
+    <t>6,67%</t>
+  </si>
+  <si>
+    <t>9,43%</t>
+  </si>
+  <si>
+    <t>9,2%</t>
+  </si>
+  <si>
+    <t>7,13%</t>
+  </si>
+  <si>
+    <t>12,05%</t>
+  </si>
+  <si>
+    <t>7,99%</t>
+  </si>
+  <si>
+    <t>6,54%</t>
+  </si>
+  <si>
+    <t>10,07%</t>
+  </si>
+  <si>
+    <t>93,33%</t>
+  </si>
+  <si>
+    <t>90,57%</t>
+  </si>
+  <si>
+    <t>90,8%</t>
+  </si>
+  <si>
+    <t>87,95%</t>
+  </si>
+  <si>
+    <t>92,87%</t>
+  </si>
+  <si>
+    <t>92,01%</t>
+  </si>
+  <si>
+    <t>89,93%</t>
+  </si>
+  <si>
+    <t>93,46%</t>
+  </si>
+  <si>
+    <t>12,5%</t>
+  </si>
+  <si>
+    <t>5,37%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>7,28%</t>
+  </si>
+  <si>
+    <t>6,47%</t>
+  </si>
+  <si>
+    <t>8,54%</t>
+  </si>
+  <si>
+    <t>87,5%</t>
+  </si>
+  <si>
+    <t>94,63%</t>
+  </si>
+  <si>
+    <t>92,72%</t>
+  </si>
+  <si>
+    <t>96,91%</t>
+  </si>
+  <si>
+    <t>93,53%</t>
+  </si>
+  <si>
+    <t>91,46%</t>
+  </si>
+  <si>
+    <t>5,84%</t>
+  </si>
+  <si>
+    <t>3,37%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>5,19%</t>
+  </si>
+  <si>
+    <t>3,28%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>94,16%</t>
+  </si>
+  <si>
+    <t>96,63%</t>
+  </si>
+  <si>
+    <t>94,81%</t>
+  </si>
+  <si>
+    <t>98,35%</t>
+  </si>
+  <si>
+    <t>96,72%</t>
+  </si>
+  <si>
+    <t>97,9%</t>
+  </si>
+  <si>
+    <t>6,18%</t>
+  </si>
+  <si>
+    <t>4,44%</t>
+  </si>
+  <si>
+    <t>8,48%</t>
+  </si>
+  <si>
+    <t>9,26%</t>
+  </si>
+  <si>
+    <t>6,89%</t>
+  </si>
+  <si>
+    <t>12,35%</t>
+  </si>
+  <si>
+    <t>7,68%</t>
+  </si>
+  <si>
+    <t>6,22%</t>
+  </si>
+  <si>
+    <t>9,58%</t>
+  </si>
+  <si>
+    <t>93,82%</t>
+  </si>
+  <si>
+    <t>91,52%</t>
+  </si>
+  <si>
+    <t>95,56%</t>
+  </si>
+  <si>
+    <t>90,74%</t>
+  </si>
+  <si>
+    <t>87,65%</t>
+  </si>
+  <si>
+    <t>93,11%</t>
+  </si>
+  <si>
+    <t>92,32%</t>
+  </si>
+  <si>
+    <t>90,42%</t>
+  </si>
+  <si>
+    <t>93,78%</t>
+  </si>
+  <si>
+    <t>3,93%</t>
+  </si>
+  <si>
+    <t>8,2%</t>
+  </si>
+  <si>
+    <t>5,08%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>7,42%</t>
+  </si>
+  <si>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>6,79%</t>
+  </si>
+  <si>
+    <t>91,8%</t>
+  </si>
+  <si>
+    <t>96,07%</t>
+  </si>
+  <si>
+    <t>94,92%</t>
+  </si>
+  <si>
+    <t>92,58%</t>
+  </si>
+  <si>
+    <t>97,41%</t>
+  </si>
+  <si>
+    <t>93,21%</t>
+  </si>
+  <si>
+    <t>96,64%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>3,5%</t>
+  </si>
+  <si>
+    <t>4,62%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>98,56%</t>
+  </si>
+  <si>
+    <t>97,63%</t>
+  </si>
+  <si>
+    <t>99,49%</t>
+  </si>
+  <si>
+    <t>96,5%</t>
+  </si>
+  <si>
+    <t>95,38%</t>
+  </si>
+  <si>
+    <t>97,66%</t>
+  </si>
+  <si>
+    <t>98,58%</t>
+  </si>
+  <si>
+    <t>4,31%</t>
+  </si>
+  <si>
+    <t>6,02%</t>
+  </si>
+  <si>
+    <t>4,85%</t>
+  </si>
+  <si>
+    <t>4,17%</t>
+  </si>
+  <si>
     <t>5,4%</t>
   </si>
   <si>
-    <t>12,39%</t>
-  </si>
-  <si>
-    <t>6,46%</t>
-  </si>
-  <si>
-    <t>8,4%</t>
-  </si>
-  <si>
-    <t>7,17%</t>
-  </si>
-  <si>
-    <t>5,61%</t>
-  </si>
-  <si>
-    <t>9,31%</t>
-  </si>
-  <si>
-    <t>87,61%</t>
+    <t>95,69%</t>
+  </si>
+  <si>
+    <t>93,98%</t>
+  </si>
+  <si>
+    <t>95,15%</t>
   </si>
   <si>
     <t>94,6%</t>
   </si>
   <si>
-    <t>93,54%</t>
-  </si>
-  <si>
-    <t>91,6%</t>
-  </si>
-  <si>
-    <t>92,83%</t>
-  </si>
-  <si>
-    <t>90,69%</t>
-  </si>
-  <si>
-    <t>94,39%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>5,98%</t>
-  </si>
-  <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>3,5%</t>
-  </si>
-  <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>4,96%</t>
-  </si>
-  <si>
-    <t>94,02%</t>
-  </si>
-  <si>
-    <t>98,41%</t>
-  </si>
-  <si>
-    <t>97,76%</t>
-  </si>
-  <si>
-    <t>96,5%</t>
-  </si>
-  <si>
-    <t>95,04%</t>
-  </si>
-  <si>
-    <t>97,59%</t>
-  </si>
-  <si>
-    <t>6,31%</t>
-  </si>
-  <si>
-    <t>8,7%</t>
-  </si>
-  <si>
-    <t>9,29%</t>
-  </si>
-  <si>
-    <t>12,43%</t>
-  </si>
-  <si>
-    <t>7,8%</t>
-  </si>
-  <si>
-    <t>6,28%</t>
-  </si>
-  <si>
-    <t>9,66%</t>
-  </si>
-  <si>
-    <t>93,69%</t>
-  </si>
-  <si>
-    <t>91,3%</t>
-  </si>
-  <si>
-    <t>90,71%</t>
-  </si>
-  <si>
-    <t>87,57%</t>
-  </si>
-  <si>
-    <t>92,2%</t>
-  </si>
-  <si>
-    <t>90,34%</t>
-  </si>
-  <si>
-    <t>93,72%</t>
-  </si>
-  <si>
-    <t>5,77%</t>
-  </si>
-  <si>
-    <t>8,25%</t>
-  </si>
-  <si>
-    <t>5,94%</t>
-  </si>
-  <si>
-    <t>3,85%</t>
-  </si>
-  <si>
-    <t>7,95%</t>
-  </si>
-  <si>
-    <t>5,87%</t>
-  </si>
-  <si>
-    <t>4,34%</t>
-  </si>
-  <si>
-    <t>7,31%</t>
-  </si>
-  <si>
-    <t>94,23%</t>
-  </si>
-  <si>
-    <t>91,75%</t>
-  </si>
-  <si>
-    <t>94,06%</t>
-  </si>
-  <si>
-    <t>92,05%</t>
-  </si>
-  <si>
-    <t>96,15%</t>
-  </si>
-  <si>
-    <t>94,13%</t>
-  </si>
-  <si>
-    <t>92,69%</t>
-  </si>
-  <si>
-    <t>95,66%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>2,76%</t>
-  </si>
-  <si>
-    <t>4,92%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>98,18%</t>
-  </si>
-  <si>
-    <t>97,24%</t>
-  </si>
-  <si>
-    <t>98,97%</t>
-  </si>
-  <si>
-    <t>95,08%</t>
-  </si>
-  <si>
-    <t>97,93%</t>
-  </si>
-  <si>
-    <t>5,37%</t>
-  </si>
-  <si>
-    <t>6,4%</t>
-  </si>
-  <si>
-    <t>5,19%</t>
-  </si>
-  <si>
-    <t>4,68%</t>
-  </si>
-  <si>
-    <t>5,68%</t>
-  </si>
-  <si>
-    <t>94,63%</t>
-  </si>
-  <si>
-    <t>93,6%</t>
-  </si>
-  <si>
-    <t>94,81%</t>
-  </si>
-  <si>
-    <t>94,32%</t>
-  </si>
-  <si>
-    <t>95,32%</t>
+    <t>95,83%</t>
   </si>
 </sst>
 </file>
@@ -2031,7 +2100,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7070605D-DD42-4F68-B22A-5AD1DBAB3EAC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B25AABF-5C24-4039-9F47-90D4F7E78F40}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3443,7 +3512,7 @@
         <v>3080</v>
       </c>
       <c r="D29" s="7">
-        <v>3143226</v>
+        <v>3143225</v>
       </c>
       <c r="E29" s="7" t="s">
         <v>159</v>
@@ -3458,7 +3527,7 @@
         <v>3191</v>
       </c>
       <c r="I29" s="7">
-        <v>3268361</v>
+        <v>3268360</v>
       </c>
       <c r="J29" s="7" t="s">
         <v>170</v>
@@ -3494,7 +3563,7 @@
         <v>3213</v>
       </c>
       <c r="D30" s="7">
-        <v>3275662</v>
+        <v>3275661</v>
       </c>
       <c r="E30" s="7" t="s">
         <v>30</v>
@@ -3509,7 +3578,7 @@
         <v>3293</v>
       </c>
       <c r="I30" s="7">
-        <v>3374646</v>
+        <v>3374645</v>
       </c>
       <c r="J30" s="7" t="s">
         <v>30</v>
@@ -3562,7 +3631,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41E081FC-F86B-4E05-BB8A-6AC0ECA52A44}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D211CC8A-26B3-43D2-89FC-2C5EC2FBC960}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3680,43 +3749,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
-      </c>
-      <c r="D4" s="7"/>
+        <v>8</v>
+      </c>
+      <c r="D4" s="7">
+        <v>7706</v>
+      </c>
       <c r="E4" s="7" t="s">
         <v>178</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>178</v>
+        <v>129</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
-      </c>
-      <c r="I4" s="7"/>
+        <v>11</v>
+      </c>
+      <c r="I4" s="7">
+        <v>12459</v>
+      </c>
       <c r="J4" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="M4" s="7">
-        <v>0</v>
-      </c>
-      <c r="N4" s="7"/>
+        <v>19</v>
+      </c>
+      <c r="N4" s="7">
+        <v>20165</v>
+      </c>
       <c r="O4" s="7" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>178</v>
+        <v>185</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3725,43 +3800,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
-      </c>
-      <c r="D5" s="7"/>
+        <v>274</v>
+      </c>
+      <c r="D5" s="7">
+        <v>287032</v>
+      </c>
       <c r="E5" s="7" t="s">
-        <v>178</v>
+        <v>186</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>178</v>
+        <v>137</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>178</v>
+        <v>187</v>
       </c>
       <c r="H5" s="7">
-        <v>0</v>
-      </c>
-      <c r="I5" s="7"/>
+        <v>245</v>
+      </c>
+      <c r="I5" s="7">
+        <v>274786</v>
+      </c>
       <c r="J5" s="7" t="s">
-        <v>178</v>
+        <v>188</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>178</v>
+        <v>189</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>178</v>
+        <v>190</v>
       </c>
       <c r="M5" s="7">
-        <v>0</v>
-      </c>
-      <c r="N5" s="7"/>
+        <v>519</v>
+      </c>
+      <c r="N5" s="7">
+        <v>561818</v>
+      </c>
       <c r="O5" s="7" t="s">
-        <v>178</v>
+        <v>191</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>178</v>
+        <v>192</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>178</v>
+        <v>193</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3770,43 +3851,49 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>0</v>
-      </c>
-      <c r="D6" s="7"/>
+        <v>282</v>
+      </c>
+      <c r="D6" s="7">
+        <v>294738</v>
+      </c>
       <c r="E6" s="7" t="s">
-        <v>178</v>
+        <v>30</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>178</v>
+        <v>30</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>178</v>
+        <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>0</v>
-      </c>
-      <c r="I6" s="7"/>
+        <v>256</v>
+      </c>
+      <c r="I6" s="7">
+        <v>287245</v>
+      </c>
       <c r="J6" s="7" t="s">
-        <v>178</v>
+        <v>30</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>178</v>
+        <v>30</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>178</v>
+        <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>0</v>
-      </c>
-      <c r="N6" s="7"/>
+        <v>538</v>
+      </c>
+      <c r="N6" s="7">
+        <v>581983</v>
+      </c>
       <c r="O6" s="7" t="s">
-        <v>178</v>
+        <v>30</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>178</v>
+        <v>30</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>178</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3826,10 +3913,10 @@
         <v>55</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>179</v>
+        <v>194</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>180</v>
+        <v>195</v>
       </c>
       <c r="H7" s="7">
         <v>21</v>
@@ -3841,10 +3928,10 @@
         <v>11</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>181</v>
+        <v>196</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>182</v>
+        <v>197</v>
       </c>
       <c r="M7" s="7">
         <v>31</v>
@@ -3853,13 +3940,13 @@
         <v>35713</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>183</v>
+        <v>198</v>
       </c>
       <c r="P7" s="7" t="s">
         <v>52</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>184</v>
+        <v>199</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3877,10 +3964,10 @@
         <v>65</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>185</v>
+        <v>200</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>186</v>
+        <v>201</v>
       </c>
       <c r="H8" s="7">
         <v>459</v>
@@ -3892,10 +3979,10 @@
         <v>21</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>187</v>
+        <v>202</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>188</v>
+        <v>203</v>
       </c>
       <c r="M8" s="7">
         <v>920</v>
@@ -3904,10 +3991,10 @@
         <v>992520</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>189</v>
+        <v>204</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>190</v>
+        <v>205</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>62</v>
@@ -3978,13 +4065,13 @@
         <v>19128</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>191</v>
+        <v>206</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>192</v>
+        <v>207</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>193</v>
+        <v>208</v>
       </c>
       <c r="H10" s="7">
         <v>16</v>
@@ -3993,13 +4080,13 @@
         <v>17444</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>194</v>
+        <v>209</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>195</v>
+        <v>210</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>196</v>
+        <v>211</v>
       </c>
       <c r="M10" s="7">
         <v>34</v>
@@ -4008,10 +4095,10 @@
         <v>36572</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>197</v>
+        <v>212</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>198</v>
+        <v>213</v>
       </c>
       <c r="Q10" s="7" t="s">
         <v>110</v>
@@ -4029,13 +4116,13 @@
         <v>304918</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>199</v>
+        <v>214</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>200</v>
+        <v>215</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>201</v>
+        <v>216</v>
       </c>
       <c r="H11" s="7">
         <v>301</v>
@@ -4044,13 +4131,13 @@
         <v>323576</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>202</v>
+        <v>217</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>203</v>
+        <v>218</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>204</v>
+        <v>219</v>
       </c>
       <c r="M11" s="7">
         <v>602</v>
@@ -4059,13 +4146,13 @@
         <v>628494</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>205</v>
+        <v>220</v>
       </c>
       <c r="P11" s="7" t="s">
         <v>118</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>206</v>
+        <v>221</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4127,49 +4214,49 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="D13" s="7">
-        <v>19345</v>
+        <v>11639</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>207</v>
+        <v>222</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>208</v>
+        <v>223</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>209</v>
+        <v>224</v>
       </c>
       <c r="H13" s="7">
+        <v>13</v>
+      </c>
+      <c r="I13" s="7">
+        <v>13685</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="L13" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="M13" s="7">
         <v>24</v>
       </c>
-      <c r="I13" s="7">
-        <v>26144</v>
-      </c>
-      <c r="J13" s="7" t="s">
-        <v>210</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>211</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>212</v>
-      </c>
-      <c r="M13" s="7">
-        <v>43</v>
-      </c>
       <c r="N13" s="7">
-        <v>45490</v>
+        <v>25325</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>113</v>
+        <v>228</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>213</v>
+        <v>229</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>214</v>
+        <v>230</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4178,49 +4265,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>607</v>
+        <v>333</v>
       </c>
       <c r="D14" s="7">
-        <v>649375</v>
+        <v>362343</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>215</v>
+        <v>231</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>216</v>
+        <v>232</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>217</v>
+        <v>233</v>
       </c>
       <c r="H14" s="7">
-        <v>603</v>
+        <v>358</v>
       </c>
       <c r="I14" s="7">
-        <v>650052</v>
+        <v>375266</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>218</v>
+        <v>234</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>219</v>
+        <v>235</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>220</v>
+        <v>236</v>
       </c>
       <c r="M14" s="7">
-        <v>1210</v>
+        <v>691</v>
       </c>
       <c r="N14" s="7">
-        <v>1299426</v>
+        <v>737608</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>121</v>
+        <v>237</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>221</v>
+        <v>238</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>222</v>
+        <v>239</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4229,10 +4316,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>626</v>
+        <v>344</v>
       </c>
       <c r="D15" s="7">
-        <v>668720</v>
+        <v>373982</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -4244,10 +4331,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>627</v>
+        <v>371</v>
       </c>
       <c r="I15" s="7">
-        <v>676196</v>
+        <v>388951</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -4259,10 +4346,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>1253</v>
+        <v>715</v>
       </c>
       <c r="N15" s="7">
-        <v>1344916</v>
+        <v>762933</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -4288,13 +4375,13 @@
         <v>10768</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>223</v>
+        <v>240</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>39</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>224</v>
+        <v>241</v>
       </c>
       <c r="H16" s="7">
         <v>10</v>
@@ -4303,13 +4390,13 @@
         <v>10172</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>225</v>
+        <v>242</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>226</v>
+        <v>243</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>227</v>
+        <v>244</v>
       </c>
       <c r="M16" s="7">
         <v>19</v>
@@ -4318,13 +4405,13 @@
         <v>20940</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>228</v>
+        <v>245</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>229</v>
+        <v>246</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>230</v>
+        <v>247</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4339,10 +4426,10 @@
         <v>201850</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>231</v>
+        <v>248</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>232</v>
+        <v>249</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>49</v>
@@ -4354,13 +4441,13 @@
         <v>209419</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>233</v>
+        <v>250</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>234</v>
+        <v>251</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>235</v>
+        <v>252</v>
       </c>
       <c r="M17" s="7">
         <v>389</v>
@@ -4369,13 +4456,13 @@
         <v>411269</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>236</v>
+        <v>253</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>237</v>
+        <v>254</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>238</v>
+        <v>255</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4443,13 +4530,13 @@
         <v>25570</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>239</v>
+        <v>256</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>240</v>
+        <v>257</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>241</v>
+        <v>258</v>
       </c>
       <c r="H19" s="7">
         <v>11</v>
@@ -4458,13 +4545,13 @@
         <v>12114</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>242</v>
+        <v>259</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>243</v>
+        <v>260</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>244</v>
+        <v>261</v>
       </c>
       <c r="M19" s="7">
         <v>35</v>
@@ -4473,13 +4560,13 @@
         <v>37684</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>245</v>
+        <v>262</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>246</v>
+        <v>263</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>193</v>
+        <v>208</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4494,13 +4581,13 @@
         <v>248411</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>247</v>
+        <v>264</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>248</v>
+        <v>265</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>249</v>
+        <v>266</v>
       </c>
       <c r="H20" s="7">
         <v>258</v>
@@ -4509,13 +4596,13 @@
         <v>267917</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>250</v>
+        <v>267</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>251</v>
+        <v>268</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>252</v>
+        <v>269</v>
       </c>
       <c r="M20" s="7">
         <v>495</v>
@@ -4524,13 +4611,13 @@
         <v>516328</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>253</v>
+        <v>270</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>200</v>
+        <v>215</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>254</v>
+        <v>271</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4598,13 +4685,13 @@
         <v>20166</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>229</v>
+        <v>246</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>255</v>
+        <v>272</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>256</v>
+        <v>273</v>
       </c>
       <c r="H22" s="7">
         <v>30</v>
@@ -4613,13 +4700,13 @@
         <v>35524</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>194</v>
+        <v>209</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>257</v>
+        <v>274</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>258</v>
+        <v>275</v>
       </c>
       <c r="M22" s="7">
         <v>47</v>
@@ -4628,13 +4715,13 @@
         <v>55690</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>259</v>
+        <v>276</v>
       </c>
       <c r="P22" s="7" t="s">
         <v>114</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>260</v>
+        <v>277</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4649,13 +4736,13 @@
         <v>642622</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>238</v>
+        <v>255</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>261</v>
+        <v>278</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>262</v>
+        <v>279</v>
       </c>
       <c r="H23" s="7">
         <v>606</v>
@@ -4664,13 +4751,13 @@
         <v>658329</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>202</v>
+        <v>217</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>263</v>
+        <v>280</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>264</v>
+        <v>281</v>
       </c>
       <c r="M23" s="7">
         <v>1207</v>
@@ -4679,10 +4766,10 @@
         <v>1300951</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>265</v>
+        <v>282</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>266</v>
+        <v>283</v>
       </c>
       <c r="Q23" s="7" t="s">
         <v>123</v>
@@ -4753,13 +4840,13 @@
         <v>24654</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>267</v>
+        <v>284</v>
       </c>
       <c r="F25" s="7" t="s">
         <v>134</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>268</v>
+        <v>285</v>
       </c>
       <c r="H25" s="7">
         <v>33</v>
@@ -4768,13 +4855,13 @@
         <v>36128</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>269</v>
+        <v>286</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>270</v>
+        <v>287</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>271</v>
+        <v>288</v>
       </c>
       <c r="M25" s="7">
         <v>57</v>
@@ -4786,10 +4873,10 @@
         <v>165</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>270</v>
+        <v>287</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>228</v>
+        <v>245</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4804,10 +4891,10 @@
         <v>754444</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>272</v>
+        <v>289</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>273</v>
+        <v>290</v>
       </c>
       <c r="G26" s="7" t="s">
         <v>144</v>
@@ -4819,13 +4906,13 @@
         <v>785724</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>274</v>
+        <v>291</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>275</v>
+        <v>292</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>276</v>
+        <v>293</v>
       </c>
       <c r="M26" s="7">
         <v>1415</v>
@@ -4837,10 +4924,10 @@
         <v>171</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>236</v>
+        <v>253</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>276</v>
+        <v>293</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4908,10 +4995,10 @@
         <v>131005</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>277</v>
+        <v>294</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>278</v>
+        <v>222</v>
       </c>
       <c r="G28" s="7" t="s">
         <v>132</v>
@@ -4926,10 +5013,10 @@
         <v>108</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>279</v>
+        <v>295</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>280</v>
+        <v>296</v>
       </c>
       <c r="M28" s="7">
         <v>266</v>
@@ -4938,13 +5025,13 @@
         <v>292870</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>281</v>
+        <v>297</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>282</v>
+        <v>298</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>283</v>
+        <v>299</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -4959,13 +5046,13 @@
         <v>3294714</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>284</v>
+        <v>300</v>
       </c>
       <c r="F29" s="7" t="s">
         <v>140</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>285</v>
+        <v>231</v>
       </c>
       <c r="H29" s="7">
         <v>3151</v>
@@ -4977,10 +5064,10 @@
         <v>117</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>286</v>
+        <v>301</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>287</v>
+        <v>302</v>
       </c>
       <c r="M29" s="7">
         <v>6238</v>
@@ -4989,13 +5076,13 @@
         <v>6689157</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>288</v>
+        <v>303</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>289</v>
+        <v>304</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>290</v>
+        <v>305</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5075,7 +5162,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{497EE230-86E7-43AF-8CD4-0482C908020A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{315784BF-6A13-470D-AD2A-4E44DE2B528B}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5092,7 +5179,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>291</v>
+        <v>306</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5199,13 +5286,13 @@
         <v>7152</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>211</v>
+        <v>307</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>292</v>
+        <v>308</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>194</v>
+        <v>209</v>
       </c>
       <c r="H4" s="7">
         <v>7</v>
@@ -5214,13 +5301,13 @@
         <v>9236</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>293</v>
+        <v>309</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>294</v>
+        <v>310</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>295</v>
+        <v>311</v>
       </c>
       <c r="M4" s="7">
         <v>14</v>
@@ -5232,10 +5319,10 @@
         <v>12</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>296</v>
+        <v>312</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>297</v>
+        <v>313</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5250,13 +5337,13 @@
         <v>286609</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>220</v>
+        <v>314</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>202</v>
+        <v>217</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>298</v>
+        <v>315</v>
       </c>
       <c r="H5" s="7">
         <v>270</v>
@@ -5265,13 +5352,13 @@
         <v>279467</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>299</v>
+        <v>316</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>300</v>
+        <v>317</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>301</v>
+        <v>318</v>
       </c>
       <c r="M5" s="7">
         <v>529</v>
@@ -5283,10 +5370,10 @@
         <v>23</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>302</v>
+        <v>319</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>303</v>
+        <v>320</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5354,13 +5441,13 @@
         <v>6589</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>304</v>
+        <v>321</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>305</v>
+        <v>322</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>306</v>
+        <v>323</v>
       </c>
       <c r="H7" s="7">
         <v>9</v>
@@ -5372,10 +5459,10 @@
         <v>55</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>307</v>
+        <v>324</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>198</v>
+        <v>213</v>
       </c>
       <c r="M7" s="7">
         <v>16</v>
@@ -5384,13 +5471,13 @@
         <v>18327</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>308</v>
+        <v>325</v>
       </c>
       <c r="P7" s="7" t="s">
         <v>96</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>309</v>
+        <v>326</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5405,13 +5492,13 @@
         <v>492270</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>310</v>
+        <v>327</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>311</v>
+        <v>328</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>312</v>
+        <v>329</v>
       </c>
       <c r="H8" s="7">
         <v>474</v>
@@ -5423,10 +5510,10 @@
         <v>65</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>206</v>
+        <v>221</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>313</v>
+        <v>330</v>
       </c>
       <c r="M8" s="7">
         <v>939</v>
@@ -5435,10 +5522,10 @@
         <v>1002682</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>314</v>
+        <v>331</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>315</v>
+        <v>332</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>106</v>
@@ -5509,13 +5596,13 @@
         <v>8023</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>316</v>
+        <v>333</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>317</v>
+        <v>334</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>318</v>
+        <v>335</v>
       </c>
       <c r="H10" s="7">
         <v>5</v>
@@ -5524,13 +5611,13 @@
         <v>5669</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>208</v>
+        <v>336</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>319</v>
+        <v>337</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>320</v>
+        <v>338</v>
       </c>
       <c r="M10" s="7">
         <v>14</v>
@@ -5539,13 +5626,13 @@
         <v>13692</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>321</v>
+        <v>339</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>322</v>
+        <v>340</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>323</v>
+        <v>341</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5560,13 +5647,13 @@
         <v>309806</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>324</v>
+        <v>342</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>325</v>
+        <v>343</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>326</v>
+        <v>344</v>
       </c>
       <c r="H11" s="7">
         <v>327</v>
@@ -5575,13 +5662,13 @@
         <v>330640</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>217</v>
+        <v>345</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>327</v>
+        <v>346</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>328</v>
+        <v>347</v>
       </c>
       <c r="M11" s="7">
         <v>652</v>
@@ -5590,13 +5677,13 @@
         <v>640446</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>329</v>
+        <v>348</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>330</v>
+        <v>349</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>331</v>
+        <v>350</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5664,13 +5751,13 @@
         <v>4373</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>322</v>
+        <v>340</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>332</v>
+        <v>351</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>333</v>
+        <v>352</v>
       </c>
       <c r="H13" s="7">
         <v>8</v>
@@ -5679,13 +5766,13 @@
         <v>11872</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>334</v>
+        <v>353</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>304</v>
+        <v>321</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>335</v>
+        <v>354</v>
       </c>
       <c r="M13" s="7">
         <v>13</v>
@@ -5694,13 +5781,13 @@
         <v>16246</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>336</v>
+        <v>355</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>337</v>
+        <v>356</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>338</v>
+        <v>357</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5715,13 +5802,13 @@
         <v>363687</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>331</v>
+        <v>350</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>339</v>
+        <v>358</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>340</v>
+        <v>359</v>
       </c>
       <c r="H14" s="7">
         <v>350</v>
@@ -5730,13 +5817,13 @@
         <v>375411</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>341</v>
+        <v>360</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>342</v>
+        <v>361</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>310</v>
+        <v>327</v>
       </c>
       <c r="M14" s="7">
         <v>697</v>
@@ -5745,13 +5832,13 @@
         <v>739097</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>343</v>
+        <v>362</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>344</v>
+        <v>363</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>345</v>
+        <v>364</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5819,7 +5906,7 @@
         <v>1948</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>292</v>
+        <v>308</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>93</v>
@@ -5834,13 +5921,13 @@
         <v>3176</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>346</v>
+        <v>365</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>347</v>
+        <v>366</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>348</v>
+        <v>367</v>
       </c>
       <c r="M16" s="7">
         <v>5</v>
@@ -5849,13 +5936,13 @@
         <v>5124</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>322</v>
+        <v>340</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>332</v>
+        <v>351</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>349</v>
+        <v>368</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5870,7 +5957,7 @@
         <v>209273</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>298</v>
+        <v>315</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>68</v>
@@ -5885,13 +5972,13 @@
         <v>214457</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>350</v>
+        <v>369</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>351</v>
+        <v>370</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>352</v>
+        <v>371</v>
       </c>
       <c r="M17" s="7">
         <v>429</v>
@@ -5900,13 +5987,13 @@
         <v>423730</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>331</v>
+        <v>350</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>353</v>
+        <v>372</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>340</v>
+        <v>359</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5974,13 +6061,13 @@
         <v>7124</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>354</v>
+        <v>373</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>355</v>
+        <v>374</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>356</v>
+        <v>375</v>
       </c>
       <c r="H19" s="7">
         <v>12</v>
@@ -5989,13 +6076,13 @@
         <v>14590</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>357</v>
+        <v>376</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>358</v>
+        <v>377</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>359</v>
+        <v>378</v>
       </c>
       <c r="M19" s="7">
         <v>20</v>
@@ -6004,13 +6091,13 @@
         <v>21714</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>360</v>
+        <v>379</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>349</v>
+        <v>368</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>361</v>
+        <v>380</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6025,13 +6112,13 @@
         <v>254365</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>362</v>
+        <v>381</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>363</v>
+        <v>382</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>364</v>
+        <v>383</v>
       </c>
       <c r="H20" s="7">
         <v>250</v>
@@ -6040,13 +6127,13 @@
         <v>257484</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>365</v>
+        <v>384</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>366</v>
+        <v>385</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>367</v>
+        <v>386</v>
       </c>
       <c r="M20" s="7">
         <v>500</v>
@@ -6055,13 +6142,13 @@
         <v>511849</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>368</v>
+        <v>387</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>369</v>
+        <v>388</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>353</v>
+        <v>372</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6129,13 +6216,13 @@
         <v>24372</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>192</v>
+        <v>207</v>
       </c>
       <c r="F22" s="7" t="s">
         <v>52</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>370</v>
+        <v>389</v>
       </c>
       <c r="H22" s="7">
         <v>23</v>
@@ -6144,13 +6231,13 @@
         <v>26635</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>371</v>
+        <v>390</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>316</v>
+        <v>333</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>372</v>
+        <v>391</v>
       </c>
       <c r="M22" s="7">
         <v>45</v>
@@ -6159,13 +6246,13 @@
         <v>51007</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>338</v>
+        <v>357</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>373</v>
+        <v>392</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>374</v>
+        <v>393</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6180,10 +6267,10 @@
         <v>631136</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>201</v>
+        <v>216</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>375</v>
+        <v>394</v>
       </c>
       <c r="G23" s="7" t="s">
         <v>62</v>
@@ -6195,13 +6282,13 @@
         <v>662627</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>376</v>
+        <v>395</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>377</v>
+        <v>396</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>324</v>
+        <v>342</v>
       </c>
       <c r="M23" s="7">
         <v>1178</v>
@@ -6210,13 +6297,13 @@
         <v>1293763</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>344</v>
+        <v>363</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>378</v>
+        <v>397</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>379</v>
+        <v>398</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6284,13 +6371,13 @@
         <v>22576</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>380</v>
+        <v>399</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>381</v>
+        <v>400</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>382</v>
+        <v>401</v>
       </c>
       <c r="H25" s="7">
         <v>20</v>
@@ -6299,13 +6386,13 @@
         <v>23999</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>380</v>
+        <v>399</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>383</v>
+        <v>402</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>384</v>
+        <v>403</v>
       </c>
       <c r="M25" s="7">
         <v>42</v>
@@ -6314,13 +6401,13 @@
         <v>46576</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>380</v>
+        <v>399</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>385</v>
+        <v>404</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>386</v>
+        <v>405</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6335,13 +6422,13 @@
         <v>756007</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>387</v>
+        <v>406</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>388</v>
+        <v>407</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>389</v>
+        <v>408</v>
       </c>
       <c r="H26" s="7">
         <v>735</v>
@@ -6350,13 +6437,13 @@
         <v>802168</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>387</v>
+        <v>406</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>390</v>
+        <v>409</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>391</v>
+        <v>410</v>
       </c>
       <c r="M26" s="7">
         <v>1463</v>
@@ -6365,13 +6452,13 @@
         <v>1558174</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>387</v>
+        <v>406</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>392</v>
+        <v>411</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>393</v>
+        <v>412</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6439,13 +6526,13 @@
         <v>82158</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>211</v>
+        <v>307</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>394</v>
+        <v>413</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>395</v>
+        <v>414</v>
       </c>
       <c r="H28" s="7">
         <v>87</v>
@@ -6454,13 +6541,13 @@
         <v>106916</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>396</v>
+        <v>415</v>
       </c>
       <c r="K28" s="7" t="s">
         <v>109</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>397</v>
+        <v>416</v>
       </c>
       <c r="M28" s="7">
         <v>169</v>
@@ -6469,13 +6556,13 @@
         <v>189073</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>398</v>
+        <v>417</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>399</v>
+        <v>418</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>293</v>
+        <v>309</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6490,13 +6577,13 @@
         <v>3303151</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>220</v>
+        <v>314</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>400</v>
+        <v>419</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>401</v>
+        <v>420</v>
       </c>
       <c r="H29" s="7">
         <v>3246</v>
@@ -6505,10 +6592,10 @@
         <v>3432664</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>402</v>
+        <v>421</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>403</v>
+        <v>422</v>
       </c>
       <c r="L29" s="7" t="s">
         <v>119</v>
@@ -6520,13 +6607,13 @@
         <v>6735817</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>404</v>
+        <v>423</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>299</v>
+        <v>316</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>405</v>
+        <v>424</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6606,7 +6693,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12A759AA-2B85-4556-B5A9-D9F7571A9F77}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45ED7B18-1450-4EEC-A9A5-4B5EABDDFC06}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6623,7 +6710,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>406</v>
+        <v>425</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6727,46 +6814,46 @@
         <v>18</v>
       </c>
       <c r="D4" s="7">
-        <v>13374</v>
+        <v>14596</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>356</v>
+        <v>426</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>407</v>
+        <v>152</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>408</v>
+        <v>427</v>
       </c>
       <c r="H4" s="7">
         <v>31</v>
       </c>
       <c r="I4" s="7">
-        <v>16005</v>
+        <v>16259</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>191</v>
+        <v>428</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>409</v>
+        <v>429</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>410</v>
+        <v>430</v>
       </c>
       <c r="M4" s="7">
         <v>49</v>
       </c>
       <c r="N4" s="7">
-        <v>29378</v>
+        <v>30854</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>411</v>
+        <v>431</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>54</v>
+        <v>432</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>412</v>
+        <v>433</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6778,46 +6865,46 @@
         <v>313</v>
       </c>
       <c r="D5" s="7">
-        <v>246924</v>
+        <v>296847</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>363</v>
+        <v>434</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>413</v>
+        <v>435</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>414</v>
+        <v>161</v>
       </c>
       <c r="H5" s="7">
         <v>507</v>
       </c>
       <c r="I5" s="7">
-        <v>255398</v>
+        <v>273376</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>199</v>
+        <v>436</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>415</v>
+        <v>437</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>416</v>
+        <v>438</v>
       </c>
       <c r="M5" s="7">
         <v>820</v>
       </c>
       <c r="N5" s="7">
-        <v>502322</v>
+        <v>570223</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>417</v>
+        <v>439</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>418</v>
+        <v>440</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>63</v>
+        <v>441</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -6829,7 +6916,7 @@
         <v>331</v>
       </c>
       <c r="D6" s="7">
-        <v>260298</v>
+        <v>311443</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -6844,7 +6931,7 @@
         <v>538</v>
       </c>
       <c r="I6" s="7">
-        <v>271403</v>
+        <v>289635</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -6859,7 +6946,7 @@
         <v>869</v>
       </c>
       <c r="N6" s="7">
-        <v>531700</v>
+        <v>601077</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -6882,46 +6969,46 @@
         <v>16</v>
       </c>
       <c r="D7" s="7">
-        <v>17963</v>
+        <v>17068</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>419</v>
+        <v>442</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>36</v>
+        <v>128</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>420</v>
+        <v>443</v>
       </c>
       <c r="H7" s="7">
         <v>42</v>
       </c>
       <c r="I7" s="7">
-        <v>26260</v>
+        <v>24130</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>421</v>
+        <v>426</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>422</v>
+        <v>444</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>423</v>
+        <v>445</v>
       </c>
       <c r="M7" s="7">
         <v>58</v>
       </c>
       <c r="N7" s="7">
-        <v>44222</v>
+        <v>41198</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>424</v>
+        <v>446</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>425</v>
+        <v>114</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>426</v>
+        <v>447</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -6933,46 +7020,46 @@
         <v>366</v>
       </c>
       <c r="D8" s="7">
-        <v>501334</v>
+        <v>501322</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>427</v>
+        <v>448</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>428</v>
+        <v>449</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>46</v>
+        <v>138</v>
       </c>
       <c r="H8" s="7">
         <v>675</v>
       </c>
       <c r="I8" s="7">
-        <v>528306</v>
+        <v>490839</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>429</v>
+        <v>434</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>430</v>
+        <v>450</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>431</v>
+        <v>451</v>
       </c>
       <c r="M8" s="7">
         <v>1041</v>
       </c>
       <c r="N8" s="7">
-        <v>1029642</v>
+        <v>992161</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>432</v>
+        <v>452</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>433</v>
+        <v>453</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>434</v>
+        <v>123</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -6984,7 +7071,7 @@
         <v>382</v>
       </c>
       <c r="D9" s="7">
-        <v>519297</v>
+        <v>518390</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -6999,7 +7086,7 @@
         <v>717</v>
       </c>
       <c r="I9" s="7">
-        <v>554566</v>
+        <v>514969</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -7014,7 +7101,7 @@
         <v>1099</v>
       </c>
       <c r="N9" s="7">
-        <v>1073864</v>
+        <v>1033359</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -7037,46 +7124,46 @@
         <v>32</v>
       </c>
       <c r="D10" s="7">
-        <v>22263</v>
+        <v>21023</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>182</v>
+        <v>454</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>435</v>
+        <v>403</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>436</v>
+        <v>455</v>
       </c>
       <c r="H10" s="7">
         <v>57</v>
       </c>
       <c r="I10" s="7">
-        <v>34883</v>
+        <v>31991</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>437</v>
+        <v>456</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>438</v>
+        <v>457</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>439</v>
+        <v>458</v>
       </c>
       <c r="M10" s="7">
         <v>89</v>
       </c>
       <c r="N10" s="7">
-        <v>57146</v>
+        <v>53014</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>440</v>
+        <v>459</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>441</v>
+        <v>460</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>442</v>
+        <v>461</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -7088,46 +7175,46 @@
         <v>327</v>
       </c>
       <c r="D11" s="7">
-        <v>299311</v>
+        <v>294395</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>187</v>
+        <v>462</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>443</v>
+        <v>463</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>444</v>
+        <v>409</v>
       </c>
       <c r="H11" s="7">
         <v>477</v>
       </c>
       <c r="I11" s="7">
-        <v>337038</v>
+        <v>315877</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>445</v>
+        <v>464</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>446</v>
+        <v>465</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>447</v>
+        <v>466</v>
       </c>
       <c r="M11" s="7">
         <v>804</v>
       </c>
       <c r="N11" s="7">
-        <v>636349</v>
+        <v>610272</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>448</v>
+        <v>467</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>449</v>
+        <v>468</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>450</v>
+        <v>469</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -7139,7 +7226,7 @@
         <v>359</v>
       </c>
       <c r="D12" s="7">
-        <v>321574</v>
+        <v>315418</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -7154,7 +7241,7 @@
         <v>534</v>
       </c>
       <c r="I12" s="7">
-        <v>371921</v>
+        <v>347868</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -7169,7 +7256,7 @@
         <v>893</v>
       </c>
       <c r="N12" s="7">
-        <v>693495</v>
+        <v>663286</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -7192,46 +7279,46 @@
         <v>30</v>
       </c>
       <c r="D13" s="7">
-        <v>26200</v>
+        <v>25421</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>227</v>
+        <v>244</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>451</v>
+        <v>37</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>452</v>
+        <v>470</v>
       </c>
       <c r="H13" s="7">
         <v>57</v>
       </c>
       <c r="I13" s="7">
-        <v>27668</v>
+        <v>25548</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>453</v>
+        <v>471</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>283</v>
+        <v>472</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>454</v>
+        <v>473</v>
       </c>
       <c r="M13" s="7">
         <v>87</v>
       </c>
       <c r="N13" s="7">
-        <v>53868</v>
+        <v>50969</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>455</v>
+        <v>474</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>456</v>
+        <v>195</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>457</v>
+        <v>475</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -7243,46 +7330,46 @@
         <v>262</v>
       </c>
       <c r="D14" s="7">
-        <v>296040</v>
+        <v>287136</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>234</v>
+        <v>251</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>458</v>
+        <v>476</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>459</v>
+        <v>45</v>
       </c>
       <c r="H14" s="7">
         <v>542</v>
       </c>
       <c r="I14" s="7">
-        <v>400888</v>
+        <v>450170</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>460</v>
+        <v>477</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>461</v>
+        <v>478</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>289</v>
+        <v>479</v>
       </c>
       <c r="M14" s="7">
         <v>804</v>
       </c>
       <c r="N14" s="7">
-        <v>696928</v>
+        <v>737305</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>462</v>
+        <v>480</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>463</v>
+        <v>481</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>464</v>
+        <v>200</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7294,7 +7381,7 @@
         <v>292</v>
       </c>
       <c r="D15" s="7">
-        <v>322240</v>
+        <v>312557</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -7309,7 +7396,7 @@
         <v>599</v>
       </c>
       <c r="I15" s="7">
-        <v>428556</v>
+        <v>475718</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -7324,7 +7411,7 @@
         <v>891</v>
       </c>
       <c r="N15" s="7">
-        <v>750796</v>
+        <v>788274</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -7347,46 +7434,46 @@
         <v>10</v>
       </c>
       <c r="D16" s="7">
-        <v>6198</v>
+        <v>5622</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>267</v>
+        <v>163</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>465</v>
+        <v>312</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>466</v>
+        <v>482</v>
       </c>
       <c r="H16" s="7">
         <v>23</v>
       </c>
       <c r="I16" s="7">
-        <v>9762</v>
+        <v>8715</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>397</v>
+        <v>483</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>467</v>
+        <v>484</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>370</v>
+        <v>485</v>
       </c>
       <c r="M16" s="7">
         <v>33</v>
       </c>
       <c r="N16" s="7">
-        <v>15960</v>
+        <v>14338</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>468</v>
+        <v>486</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>469</v>
+        <v>487</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>470</v>
+        <v>199</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7398,46 +7485,46 @@
         <v>268</v>
       </c>
       <c r="D17" s="7">
-        <v>190051</v>
+        <v>172653</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>272</v>
+        <v>170</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>471</v>
+        <v>488</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>472</v>
+        <v>320</v>
       </c>
       <c r="H17" s="7">
         <v>472</v>
       </c>
       <c r="I17" s="7">
-        <v>249751</v>
+        <v>250064</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>403</v>
+        <v>489</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>375</v>
+        <v>490</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>473</v>
+        <v>491</v>
       </c>
       <c r="M17" s="7">
         <v>740</v>
       </c>
       <c r="N17" s="7">
-        <v>439802</v>
+        <v>422717</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>474</v>
+        <v>492</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>475</v>
+        <v>205</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>476</v>
+        <v>493</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7449,7 +7536,7 @@
         <v>278</v>
       </c>
       <c r="D18" s="7">
-        <v>196249</v>
+        <v>178275</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -7464,7 +7551,7 @@
         <v>495</v>
       </c>
       <c r="I18" s="7">
-        <v>259513</v>
+        <v>258779</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -7479,7 +7566,7 @@
         <v>773</v>
       </c>
       <c r="N18" s="7">
-        <v>455762</v>
+        <v>437055</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -7502,46 +7589,46 @@
         <v>35</v>
       </c>
       <c r="D19" s="7">
-        <v>17497</v>
+        <v>16655</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>477</v>
+        <v>494</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>108</v>
+        <v>495</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>478</v>
+        <v>496</v>
       </c>
       <c r="H19" s="7">
         <v>57</v>
       </c>
       <c r="I19" s="7">
-        <v>25600</v>
+        <v>23809</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>479</v>
+        <v>497</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>182</v>
+        <v>498</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>480</v>
+        <v>499</v>
       </c>
       <c r="M19" s="7">
         <v>92</v>
       </c>
       <c r="N19" s="7">
-        <v>43097</v>
+        <v>40463</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>481</v>
+        <v>500</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>482</v>
+        <v>501</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>483</v>
+        <v>502</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -7553,46 +7640,46 @@
         <v>336</v>
       </c>
       <c r="D20" s="7">
-        <v>259726</v>
+        <v>252981</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>484</v>
+        <v>503</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>485</v>
+        <v>504</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>117</v>
+        <v>505</v>
       </c>
       <c r="H20" s="7">
         <v>403</v>
       </c>
       <c r="I20" s="7">
-        <v>250022</v>
+        <v>233247</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>486</v>
+        <v>506</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>487</v>
+        <v>507</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>187</v>
+        <v>508</v>
       </c>
       <c r="M20" s="7">
         <v>739</v>
       </c>
       <c r="N20" s="7">
-        <v>509748</v>
+        <v>486229</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>488</v>
+        <v>509</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>489</v>
+        <v>510</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>490</v>
+        <v>511</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7604,7 +7691,7 @@
         <v>371</v>
       </c>
       <c r="D21" s="7">
-        <v>277223</v>
+        <v>269636</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -7619,7 +7706,7 @@
         <v>460</v>
       </c>
       <c r="I21" s="7">
-        <v>275622</v>
+        <v>257056</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>30</v>
@@ -7634,7 +7721,7 @@
         <v>831</v>
       </c>
       <c r="N21" s="7">
-        <v>552845</v>
+        <v>526692</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -7657,46 +7744,46 @@
         <v>38</v>
       </c>
       <c r="D22" s="7">
-        <v>36248</v>
+        <v>35300</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>491</v>
+        <v>389</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>151</v>
+        <v>512</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>492</v>
+        <v>513</v>
       </c>
       <c r="H22" s="7">
         <v>74</v>
       </c>
       <c r="I22" s="7">
-        <v>47758</v>
+        <v>43165</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>493</v>
+        <v>514</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>494</v>
+        <v>515</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>495</v>
+        <v>516</v>
       </c>
       <c r="M22" s="7">
         <v>112</v>
       </c>
       <c r="N22" s="7">
-        <v>84006</v>
+        <v>78465</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>496</v>
+        <v>447</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>497</v>
+        <v>517</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>498</v>
+        <v>518</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7708,46 +7795,46 @@
         <v>561</v>
       </c>
       <c r="D23" s="7">
-        <v>591506</v>
+        <v>588979</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>499</v>
+        <v>394</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>500</v>
+        <v>519</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>159</v>
+        <v>520</v>
       </c>
       <c r="H23" s="7">
         <v>886</v>
       </c>
       <c r="I23" s="7">
-        <v>756445</v>
+        <v>806100</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>501</v>
+        <v>521</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>502</v>
+        <v>522</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>503</v>
+        <v>523</v>
       </c>
       <c r="M23" s="7">
         <v>1447</v>
       </c>
       <c r="N23" s="7">
-        <v>1347951</v>
+        <v>1395079</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>504</v>
+        <v>453</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>505</v>
+        <v>524</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>506</v>
+        <v>525</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -7759,7 +7846,7 @@
         <v>599</v>
       </c>
       <c r="D24" s="7">
-        <v>627754</v>
+        <v>624279</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>30</v>
@@ -7774,7 +7861,7 @@
         <v>960</v>
       </c>
       <c r="I24" s="7">
-        <v>804203</v>
+        <v>849265</v>
       </c>
       <c r="J24" s="7" t="s">
         <v>30</v>
@@ -7789,7 +7876,7 @@
         <v>1559</v>
       </c>
       <c r="N24" s="7">
-        <v>1431957</v>
+        <v>1473544</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>30</v>
@@ -7812,46 +7899,46 @@
         <v>19</v>
       </c>
       <c r="D25" s="7">
-        <v>15640</v>
+        <v>13366</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>507</v>
+        <v>526</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>508</v>
+        <v>527</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>509</v>
+        <v>528</v>
       </c>
       <c r="H25" s="7">
         <v>44</v>
       </c>
       <c r="I25" s="7">
-        <v>31435</v>
+        <v>25113</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>17</v>
+        <v>529</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>333</v>
+        <v>164</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>510</v>
+        <v>530</v>
       </c>
       <c r="M25" s="7">
         <v>63</v>
       </c>
       <c r="N25" s="7">
-        <v>47075</v>
+        <v>38479</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>354</v>
+        <v>531</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>511</v>
+        <v>532</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>323</v>
+        <v>353</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -7863,46 +7950,46 @@
         <v>743</v>
       </c>
       <c r="D26" s="7">
-        <v>843788</v>
+        <v>915354</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>512</v>
+        <v>533</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>513</v>
+        <v>534</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>514</v>
+        <v>535</v>
       </c>
       <c r="H26" s="7">
         <v>1018</v>
       </c>
       <c r="I26" s="7">
-        <v>836999</v>
+        <v>692618</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>27</v>
+        <v>536</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>515</v>
+        <v>537</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>339</v>
+        <v>172</v>
       </c>
       <c r="M26" s="7">
         <v>1761</v>
       </c>
       <c r="N26" s="7">
-        <v>1680787</v>
+        <v>1607973</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>362</v>
+        <v>538</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>330</v>
+        <v>360</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>516</v>
+        <v>539</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7914,7 +8001,7 @@
         <v>762</v>
       </c>
       <c r="D27" s="7">
-        <v>859428</v>
+        <v>928720</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>30</v>
@@ -7929,7 +8016,7 @@
         <v>1062</v>
       </c>
       <c r="I27" s="7">
-        <v>868434</v>
+        <v>717731</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>30</v>
@@ -7944,7 +8031,7 @@
         <v>1824</v>
       </c>
       <c r="N27" s="7">
-        <v>1727862</v>
+        <v>1646452</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>30</v>
@@ -7967,46 +8054,46 @@
         <v>198</v>
       </c>
       <c r="D28" s="7">
-        <v>155384</v>
+        <v>149050</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>384</v>
+        <v>540</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>348</v>
+        <v>74</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>517</v>
+        <v>153</v>
       </c>
       <c r="H28" s="7">
         <v>385</v>
       </c>
       <c r="I28" s="7">
-        <v>219369</v>
+        <v>198729</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>212</v>
+        <v>376</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>16</v>
+        <v>259</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>518</v>
+        <v>541</v>
       </c>
       <c r="M28" s="7">
         <v>583</v>
       </c>
       <c r="N28" s="7">
-        <v>374753</v>
+        <v>347779</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>519</v>
+        <v>542</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>520</v>
+        <v>543</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>521</v>
+        <v>544</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -8018,46 +8105,46 @@
         <v>3176</v>
       </c>
       <c r="D29" s="7">
-        <v>3228680</v>
+        <v>3309668</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>390</v>
+        <v>545</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>522</v>
+        <v>160</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>351</v>
+        <v>84</v>
       </c>
       <c r="H29" s="7">
         <v>4980</v>
       </c>
       <c r="I29" s="7">
-        <v>3614849</v>
+        <v>3512291</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>219</v>
+        <v>384</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>523</v>
+        <v>546</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>25</v>
+        <v>267</v>
       </c>
       <c r="M29" s="7">
         <v>8156</v>
       </c>
       <c r="N29" s="7">
-        <v>6843529</v>
+        <v>6821959</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>524</v>
+        <v>547</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>525</v>
+        <v>548</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>526</v>
+        <v>549</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -8069,7 +8156,7 @@
         <v>3374</v>
       </c>
       <c r="D30" s="7">
-        <v>3384064</v>
+        <v>3458718</v>
       </c>
       <c r="E30" s="7" t="s">
         <v>30</v>
@@ -8084,7 +8171,7 @@
         <v>5365</v>
       </c>
       <c r="I30" s="7">
-        <v>3834218</v>
+        <v>3711020</v>
       </c>
       <c r="J30" s="7" t="s">
         <v>30</v>
@@ -8099,7 +8186,7 @@
         <v>8739</v>
       </c>
       <c r="N30" s="7">
-        <v>7218282</v>
+        <v>7169738</v>
       </c>
       <c r="O30" s="7" t="s">
         <v>30</v>
